--- a/[5] Tester Results/TEST_EXPERIMENT_ALL_VARIABLES_PARAMETRIC.xlsx
+++ b/[5] Tester Results/TEST_EXPERIMENT_ALL_VARIABLES_PARAMETRIC.xlsx
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.556423099587506</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1364400528623295</v>
+        <v>0.4793570527420494</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.8089901084875561</v>
+        <v>1.09397278338182</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6667302394357698</v>
+        <v>0.397384677081507</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.7928625215146295</v>
+        <v>1.090601730105675</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6829802145511128</v>
+        <v>0.4001620539319483</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6338842161355167</v>
+        <v>0.6261589538037978</v>
       </c>
       <c r="F5" t="n">
-        <v>0.833703818216198</v>
+        <v>0.8402354622530005</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6450024853109307</v>
+        <v>0.5884360359599105</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8241276029700018</v>
+        <v>0.8705545847351627</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6280993465456184</v>
+        <v>0.4311199521248226</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8386045708981408</v>
+        <v>0.9622357659382932</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8139323477716012</v>
+        <v>0.873843808470392</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6617420214414853</v>
+        <v>0.6013523898361381</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.032993701579528</v>
+        <v>1.305718915616498</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4495407314040127</v>
+        <v>0.2493647178687216</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.7846316330851416</v>
+        <v>1.335786039268936</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6912493885472712</v>
+        <v>0.23251747844873</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5883296151701062</v>
+        <v>0.95</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8706361728724648</v>
+        <v>0.5264046329694134</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.7835436822579473</v>
+        <v>1.021235972568579</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6923408254727328</v>
+        <v>0.4600447606185223</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7149970682009744</v>
+        <v>1.018217611399288</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7598333475916014</v>
+        <v>0.4627633393971074</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7506050595084988</v>
+        <v>0.6200330307388099</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7251441924464856</v>
+        <v>0.8453406216305392</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7544156542347003</v>
+        <v>0.5613919769463168</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7213779106103076</v>
+        <v>0.8905154299442122</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.8470018332536746</v>
+        <v>0.4692404397564782</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6283498659152205</v>
+        <v>0.9456582994507332</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7687176909951065</v>
+        <v>0.7601386559132615</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7071697298045625</v>
+        <v>0.7157055146372642</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.4344908978690789</v>
+        <v>1.090888820841204</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9609178977440194</v>
+        <v>0.3999250263001067</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.668245951110044</v>
+        <v>0.7722374914441029</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8034873337003595</v>
+        <v>0.7036574555703765</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.233067997841339</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2942637237216342</v>
+        <v>0.4793570527420494</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1225,20 +1225,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5631875275010999</v>
+        <v>2.95701522047303</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8892395396616739</v>
+        <v>0.00386973802070484</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01084560643649879</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Tukey HSD</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>gap_duration_10</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>offset_PPI_12</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>-3.514231435749739</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-5.733333333333327</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1262,20 +1280,38 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.7023172301646452</v>
+        <v>2.716340366777596</v>
       </c>
       <c r="F22" t="n">
-        <v>0.771917425498197</v>
+        <v>0.007048098236539891</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.01457670350253415</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Tukey HSD</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>gap_duration_10</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>offset_PPI_12</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>-3.514231435749741</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-5.733333333333331</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1299,10 +1335,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3439306882178604</v>
+        <v>0.3787997145370953</v>
       </c>
       <c r="F23" t="n">
-        <v>0.986994023882559</v>
+        <v>0.9791504119542942</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1336,10 +1372,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3594397311891612</v>
+        <v>0.3560554560889482</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9838183120954859</v>
+        <v>0.984552748320824</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1373,10 +1409,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.341404340701378</v>
+        <v>0.306189393180826</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9874663052301227</v>
+        <v>0.9928500679410334</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1410,10 +1446,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.5560306560110246</v>
+        <v>0.5275729095736434</v>
       </c>
       <c r="F26" t="n">
-        <v>0.894281965579701</v>
+        <v>0.9131600902626134</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1447,10 +1483,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1685496558393322</v>
+        <v>1.662375294876838</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9997860769217215</v>
+        <v>0.1046767319488595</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1484,10 +1520,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.242125116577021</v>
+        <v>1.079277631193903</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2883353820235448</v>
+        <v>0.4095847334438313</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1521,38 +1557,20 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.07051869575797</v>
+        <v>0.7905270784278212</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03678496439839211</v>
+        <v>0.6853285264065668</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.006109182630035792</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>offset_PPI_8</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>2.495813451327905</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1576,10 +1594,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.7894831425580972</v>
+        <v>0.8887498065941501</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6863777242181381</v>
+        <v>0.5864535340118924</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1613,10 +1631,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.966543523276174</v>
+        <v>0.8809468136851586</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5106107252322545</v>
+        <v>0.5942424776908046</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1650,10 +1668,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.8943882856332652</v>
+        <v>0.8846091890148728</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5808408688365403</v>
+        <v>0.5905837098788791</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1687,10 +1705,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.8077366277017838</v>
+        <v>0.8983205235941304</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6679949019689702</v>
+        <v>0.5769350496974575</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1724,10 +1742,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1.038867910305503</v>
+        <v>1.009341671307607</v>
       </c>
       <c r="F34" t="n">
-        <v>0.444345012747188</v>
+        <v>0.4708088123442689</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -1761,10 +1779,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.8857479708181965</v>
+        <v>0.8791382321759056</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5894471101481197</v>
+        <v>0.5960511304804397</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -1798,10 +1816,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.7656511039778223</v>
+        <v>1.22668037125207</v>
       </c>
       <c r="F36" t="n">
-        <v>0.710225073716235</v>
+        <v>0.2985022639576554</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -1835,10 +1853,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.6810585875706063</v>
+        <v>1.015913967547739</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7917836251252779</v>
+        <v>0.4648441566304213</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -1872,10 +1890,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.5063641245972074</v>
+        <v>0.9375000000000004</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9259622212848687</v>
+        <v>0.5384720755662104</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1909,10 +1927,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.3119112857451755</v>
+        <v>1.077869987870127</v>
       </c>
       <c r="F39" t="n">
-        <v>0.992118402289809</v>
+        <v>0.4107659532303047</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -1946,10 +1964,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.280774612884855</v>
+        <v>1.075360653516451</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9955143167766326</v>
+        <v>0.4128770633763673</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -1983,10 +2001,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.1008725026669518</v>
+        <v>0.2392842714792285</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9999932044936489</v>
+        <v>0.9981799786139314</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -2020,10 +2038,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.09550771252500427</v>
+        <v>0.2289377650769255</v>
       </c>
       <c r="F42" t="n">
-        <v>0.999995371545561</v>
+        <v>0.9985942428357466</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -2057,10 +2075,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.1288231875883449</v>
+        <v>0.2442239984897496</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9999634594537051</v>
+        <v>0.9979517618354267</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -2094,10 +2112,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1163098104270884</v>
+        <v>0.1978329681706811</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9999817650802768</v>
+        <v>0.9994159920825699</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -2131,10 +2149,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.09474186064512562</v>
+        <v>1.131978888362985</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9999956271430065</v>
+        <v>0.3669660935678229</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -2168,10 +2186,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.09993755782155068</v>
+        <v>0.3302198241646392</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9999936336823475</v>
+        <v>0.9894126280626648</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -2205,10 +2223,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.5742441032135507</v>
+        <v>0.8313609467455615</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8812258811992637</v>
+        <v>0.644139022116339</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -2242,10 +2260,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.6886408118112585</v>
+        <v>0.4761460438276365</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7847588361847156</v>
+        <v>0.9422595621380374</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -2279,10 +2297,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.576786233701632</v>
+        <v>0.4699512371756187</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8793457590016051</v>
+        <v>0.9453140842762322</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -2316,10 +2334,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.5822559165156526</v>
+        <v>0.9147978892284888</v>
       </c>
       <c r="F50" t="n">
-        <v>0.87525371896585</v>
+        <v>0.5606518434658445</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -2353,10 +2371,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.5819307842292485</v>
+        <v>0.8216381099681372</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8754987297325264</v>
+        <v>0.6539603026371452</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
@@ -2390,10 +2408,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.8245804945499431</v>
+        <v>1.043110479581356</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6509881662568584</v>
+        <v>0.4406144584420063</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -2427,10 +2445,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.2853442131008576</v>
+        <v>0.85424728271255</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9951011310628357</v>
+        <v>0.6210464112727041</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -2464,10 +2482,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.0772774725959879</v>
+        <v>1.037156969088269</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9999989801995258</v>
+        <v>0.44585470275865</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -2501,10 +2519,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1547184879666413</v>
+        <v>1.294735118548342</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9998768880150254</v>
+        <v>0.2557681649095745</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>

--- a/[5] Tester Results/TEST_EXPERIMENT_ALL_VARIABLES_PARAMETRIC.xlsx
+++ b/[5] Tester Results/TEST_EXPERIMENT_ALL_VARIABLES_PARAMETRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>1.09397278338182</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4793570527420494</v>
+        <v>0.397384677081507</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -550,7 +550,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.09397278338182</v>
+        <v>0.6261589538037978</v>
       </c>
       <c r="F3" t="n">
-        <v>0.397384677081507</v>
+        <v>0.8402354622530005</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -587,7 +587,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.090601730105675</v>
+        <v>0.5884360359599105</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4001620539319483</v>
+        <v>0.8705545847351627</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -624,7 +624,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6261589538037978</v>
+        <v>0.4311199521248226</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8402354622530005</v>
+        <v>0.9622357659382932</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.5884360359599105</v>
+        <v>0.873843808470392</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8705545847351627</v>
+        <v>0.6013523898361381</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.4311199521248226</v>
+        <v>1.305718915616498</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9622357659382932</v>
+        <v>0.2493647178687216</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.873843808470392</v>
+        <v>1.335786039268936</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6013523898361381</v>
+        <v>0.23251747844873</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -767,12 +767,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.305718915616498</v>
+        <v>1.021235972568579</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2493647178687216</v>
+        <v>0.4600447606185223</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -804,12 +804,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.335786039268936</v>
+        <v>0.6200330307388099</v>
       </c>
       <c r="F10" t="n">
-        <v>0.23251747844873</v>
+        <v>0.8453406216305392</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -846,7 +846,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.95</v>
+        <v>0.5613919769463168</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5264046329694134</v>
+        <v>0.8905154299442122</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -883,7 +883,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.021235972568579</v>
+        <v>0.4692404397564782</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4600447606185223</v>
+        <v>0.9456582994507332</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -920,7 +920,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.018217611399288</v>
+        <v>0.7601386559132615</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4627633393971074</v>
+        <v>0.7157055146372642</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -957,7 +957,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.6200330307388099</v>
+        <v>1.090888820841204</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8453406216305392</v>
+        <v>0.3999250263001067</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -994,7 +994,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.5613919769463168</v>
+        <v>0.7722374914441029</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8905154299442122</v>
+        <v>0.7036574555703765</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1026,12 +1026,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1040,20 +1040,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.4692404397564782</v>
+        <v>2.95701522047303</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9456582994507332</v>
+        <v>0.00386973802070484</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.01084560643649879</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Tukey HSD</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>gap_duration_10</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>offset_PPI_12</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>-3.514231435749739</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-5.733333333333327</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1063,12 +1081,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1077,10 +1095,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7601386559132615</v>
+        <v>0.3787997145370953</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7157055146372642</v>
+        <v>0.9791504119542942</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1100,12 +1118,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1114,10 +1132,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.090888820841204</v>
+        <v>0.3560554560889482</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3999250263001067</v>
+        <v>0.984552748320824</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1137,12 +1155,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1151,10 +1169,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7722374914441029</v>
+        <v>0.306189393180826</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7036574555703765</v>
+        <v>0.9928500679410334</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1179,7 +1197,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1188,10 +1206,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0.5275729095736434</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4793570527420494</v>
+        <v>0.9131600902626134</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1216,7 +1234,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1225,38 +1243,20 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.95701522047303</v>
+        <v>1.662375294876838</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00386973802070484</v>
+        <v>0.1046767319488595</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.01084560643649879</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>gap_duration_10</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>offset_PPI_12</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>-3.514231435749739</v>
-      </c>
-      <c r="M21" t="n">
-        <v>-5.733333333333327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1280,53 +1280,35 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2.716340366777596</v>
+        <v>1.079277631193903</v>
       </c>
       <c r="F22" t="n">
-        <v>0.007048098236539891</v>
+        <v>0.4095847334438313</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.01457670350253415</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>gap_duration_10</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>offset_PPI_12</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>-3.514231435749741</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-5.733333333333331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1335,10 +1317,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3787997145370953</v>
+        <v>0.8887498065941501</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9791504119542942</v>
+        <v>0.5864535340118924</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1353,17 +1335,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1372,10 +1354,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3560554560889482</v>
+        <v>0.8846091890148728</v>
       </c>
       <c r="F24" t="n">
-        <v>0.984552748320824</v>
+        <v>0.5905837098788791</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1390,17 +1372,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1409,10 +1391,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.306189393180826</v>
+        <v>0.8983205235941304</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9928500679410334</v>
+        <v>0.5769350496974575</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1427,17 +1409,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1446,10 +1428,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.5275729095736434</v>
+        <v>1.009341671307607</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9131600902626134</v>
+        <v>0.4708088123442689</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1464,17 +1446,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1483,10 +1465,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.662375294876838</v>
+        <v>0.8791382321759056</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1046767319488595</v>
+        <v>0.5960511304804397</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1501,17 +1483,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1520,10 +1502,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.079277631193903</v>
+        <v>1.22668037125207</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4095847334438313</v>
+        <v>0.2985022639576554</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1548,7 +1530,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1557,10 +1539,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.7905270784278212</v>
+        <v>1.015913967547739</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6853285264065668</v>
+        <v>0.4648441566304213</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1580,12 +1562,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1594,10 +1576,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.8887498065941501</v>
+        <v>1.077869987870127</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5864535340118924</v>
+        <v>0.4107659532303047</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1617,12 +1599,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1631,10 +1613,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.8809468136851586</v>
+        <v>0.2392842714792285</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5942424776908046</v>
+        <v>0.9981799786139314</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1654,12 +1636,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1668,10 +1650,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.8846091890148728</v>
+        <v>0.2289377650769255</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5905837098788791</v>
+        <v>0.9985942428357466</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1691,12 +1673,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1705,10 +1687,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.8983205235941304</v>
+        <v>0.2442239984897496</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5769350496974575</v>
+        <v>0.9979517618354267</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1728,12 +1710,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1742,10 +1724,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1.009341671307607</v>
+        <v>0.1978329681706811</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4708088123442689</v>
+        <v>0.9994159920825699</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -1765,12 +1747,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1779,10 +1761,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.8791382321759056</v>
+        <v>1.131978888362985</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5960511304804397</v>
+        <v>0.3669660935678229</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -1802,12 +1784,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1816,10 +1798,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.22668037125207</v>
+        <v>0.3302198241646392</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2985022639576554</v>
+        <v>0.9894126280626648</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -1839,12 +1821,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1853,10 +1835,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.015913967547739</v>
+        <v>0.4761460438276365</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4648441566304213</v>
+        <v>0.9422595621380374</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -1876,12 +1858,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1890,10 +1872,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.9375000000000004</v>
+        <v>0.9147978892284888</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5384720755662104</v>
+        <v>0.5606518434658445</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1913,12 +1895,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1927,10 +1909,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.077869987870127</v>
+        <v>0.8216381099681372</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4107659532303047</v>
+        <v>0.6539603026371452</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -1950,12 +1932,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1964,10 +1946,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.075360653516451</v>
+        <v>1.043110479581356</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4128770633763673</v>
+        <v>0.4406144584420063</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -1987,12 +1969,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2001,10 +1983,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2392842714792285</v>
+        <v>0.85424728271255</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9981799786139314</v>
+        <v>0.6210464112727041</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -2024,12 +2006,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2038,10 +2020,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2289377650769255</v>
+        <v>1.037156969088269</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9985942428357466</v>
+        <v>0.44585470275865</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -2061,12 +2043,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2075,10 +2057,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2442239984897496</v>
+        <v>1.294735118548342</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9979517618354267</v>
+        <v>0.2557681649095745</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -2090,450 +2072,6 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>ANOVA</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>0.1978329681706811</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.9994159920825699</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>ANOVA</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>1.131978888362985</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.3669660935678229</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>ANOVA</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>0.3302198241646392</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.9894126280626648</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>ANOVA</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>0.8313609467455615</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.644139022116339</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>ANOVA</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>0.4761460438276365</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.9422595621380374</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>ANOVA</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>0.4699512371756187</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.9453140842762322</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>peakValue</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>ANOVA</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>0.9147978892284888</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.5606518434658445</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>PTPA</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>ANOVA</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>0.8216381099681372</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.6539603026371452</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>ANOVA</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>1.043110479581356</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.4406144584420063</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>ANOVA</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>0.85424728271255</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.6210464112727041</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>ANOVA</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>1.037156969088269</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.44585470275865</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>ANOVA</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>1.294735118548342</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.2557681649095745</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
